--- a/Excel Input/Input.xlsx
+++ b/Excel Input/Input.xlsx
@@ -138,10 +138,10 @@
     <t>B17E</t>
   </si>
   <si>
-    <t>Catalytic Stripper-DMA-CPMA</t>
-  </si>
-  <si>
-    <t>B18E</t>
+    <t>Catalytic Stripper-DMA-CPMA Line</t>
+  </si>
+  <si>
+    <t>B16E</t>
   </si>
 </sst>
 </file>
@@ -1163,16 +1163,16 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -1284,13 +1284,13 @@
         <v>-45</v>
       </c>
       <c r="J2" s="4">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2" s="4">
         <v>298</v>
       </c>
       <c r="L2" s="4">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2" s="4">
         <v>298</v>
@@ -1346,13 +1346,13 @@
         <v>-90</v>
       </c>
       <c r="J3" s="4">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3" s="4">
         <v>298</v>
       </c>
       <c r="L3" s="4">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3" s="4">
         <v>298</v>
@@ -1638,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>

--- a/Excel Input/Input.xlsx
+++ b/Excel Input/Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Master Project\Spreadsheet\Code\V2\Excel Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Master Project\FPPC\V1\Excel Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>NO</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Silicon</t>
-  </si>
-  <si>
     <t>Length(Inch)</t>
   </si>
   <si>
@@ -111,37 +108,85 @@
     <t>Bend</t>
   </si>
   <si>
-    <t>B11A</t>
-  </si>
-  <si>
-    <t>B12A</t>
-  </si>
-  <si>
-    <t>B13A</t>
-  </si>
-  <si>
-    <t>B16C</t>
-  </si>
-  <si>
-    <t>B14A</t>
-  </si>
-  <si>
     <t>From Main Duct</t>
   </si>
   <si>
-    <t>B15A</t>
-  </si>
-  <si>
-    <t>B16A</t>
-  </si>
-  <si>
-    <t>B17E</t>
-  </si>
-  <si>
-    <t>Catalytic Stripper-DMA-CPMA Line</t>
-  </si>
-  <si>
-    <t>B16E</t>
+    <t>C11A</t>
+  </si>
+  <si>
+    <t>C12A</t>
+  </si>
+  <si>
+    <t>C13A</t>
+  </si>
+  <si>
+    <t>C14A</t>
+  </si>
+  <si>
+    <t>C15A</t>
+  </si>
+  <si>
+    <t>C16A</t>
+  </si>
+  <si>
+    <t>Enlargement</t>
+  </si>
+  <si>
+    <t>C17A</t>
+  </si>
+  <si>
+    <t>C18A</t>
+  </si>
+  <si>
+    <t>C18G</t>
+  </si>
+  <si>
+    <t>C19G</t>
+  </si>
+  <si>
+    <t>C19H</t>
+  </si>
+  <si>
+    <t>C20H</t>
+  </si>
+  <si>
+    <t>C21H</t>
+  </si>
+  <si>
+    <t>C22H</t>
+  </si>
+  <si>
+    <t>C23H</t>
+  </si>
+  <si>
+    <t>C24H</t>
+  </si>
+  <si>
+    <t>C25H</t>
+  </si>
+  <si>
+    <t>C26H</t>
+  </si>
+  <si>
+    <t>C27H</t>
+  </si>
+  <si>
+    <t>C28H</t>
+  </si>
+  <si>
+    <t>C29H</t>
+  </si>
+  <si>
+    <t>C30H</t>
+  </si>
+  <si>
+    <t>PASS3 Line</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Theta Probe(Deg)</t>
   </si>
 </sst>
 </file>
@@ -865,7 +910,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Y1048538" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Y1048537" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="25">
     <tableColumn id="1" name="Column1" dataDxfId="24"/>
     <tableColumn id="25" name="Column25" dataDxfId="23"/>
@@ -1160,19 +1205,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -1189,11 +1234,12 @@
     <col min="18" max="18" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="11.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="11.109375" style="1" customWidth="1"/>
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1243,24 +1289,27 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>25</v>
@@ -1272,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <v>360</v>
@@ -1299,30 +1348,33 @@
         <v>101325</v>
       </c>
       <c r="O2" s="4">
-        <v>4.3</v>
+        <v>90</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="T2" s="4">
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>26</v>
@@ -1334,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="4">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -1361,45 +1413,48 @@
         <v>101325</v>
       </c>
       <c r="O3" s="4">
-        <v>4.3</v>
+        <v>90</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3" s="4">
         <v>0</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" s="4">
         <v>0</v>
       </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G4" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -1408,13 +1463,13 @@
         <v>-90</v>
       </c>
       <c r="J4" s="4">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="K4" s="4">
         <v>298</v>
       </c>
       <c r="L4" s="4">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="M4" s="4">
         <v>298</v>
@@ -1423,45 +1478,48 @@
         <v>101325</v>
       </c>
       <c r="O4" s="4">
-        <v>4.3</v>
+        <v>90</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4" s="4">
         <v>0</v>
       </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G5" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4">
         <v>90</v>
@@ -1485,42 +1543,45 @@
         <v>101325</v>
       </c>
       <c r="O5" s="4">
-        <v>4.3</v>
+        <v>90</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
       </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G6" s="4">
         <v>20</v>
@@ -1547,51 +1608,54 @@
         <v>101325</v>
       </c>
       <c r="O6" s="4">
-        <v>4.3</v>
+        <v>90</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
       </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>298</v>
@@ -1609,51 +1673,54 @@
         <v>101325</v>
       </c>
       <c r="O7" s="4">
-        <v>0.5</v>
+        <v>90</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
       </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>298</v>
@@ -1671,51 +1738,54 @@
         <v>101325</v>
       </c>
       <c r="O8" s="4">
-        <v>0.3</v>
+        <v>90</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>298</v>
@@ -1733,27 +1803,876 @@
         <v>101325</v>
       </c>
       <c r="O9" s="4">
-        <v>0.3</v>
+        <f>90-2.5-30-1</f>
+        <v>56.5</v>
       </c>
       <c r="P9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>298</v>
+      </c>
+      <c r="K10" s="4">
+        <v>298</v>
+      </c>
+      <c r="L10" s="4">
+        <v>298</v>
+      </c>
+      <c r="M10" s="4">
+        <v>298</v>
+      </c>
+      <c r="N10" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O10" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>90</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>298</v>
+      </c>
+      <c r="K11" s="4">
+        <v>298</v>
+      </c>
+      <c r="L11" s="4">
+        <v>298</v>
+      </c>
+      <c r="M11" s="4">
+        <v>298</v>
+      </c>
+      <c r="N11" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>298</v>
+      </c>
+      <c r="K12" s="4">
+        <v>298</v>
+      </c>
+      <c r="L12" s="4">
+        <v>298</v>
+      </c>
+      <c r="M12" s="4">
+        <v>298</v>
+      </c>
+      <c r="N12" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>90</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>298</v>
+      </c>
+      <c r="K13" s="4">
+        <v>298</v>
+      </c>
+      <c r="L13" s="4">
+        <v>298</v>
+      </c>
+      <c r="M13" s="4">
+        <v>298</v>
+      </c>
+      <c r="N13" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-90</v>
+      </c>
+      <c r="J14" s="4">
+        <v>298</v>
+      </c>
+      <c r="K14" s="4">
+        <v>298</v>
+      </c>
+      <c r="L14" s="4">
+        <v>298</v>
+      </c>
+      <c r="M14" s="4">
+        <v>298</v>
+      </c>
+      <c r="N14" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-75</v>
+      </c>
+      <c r="J15" s="4">
+        <v>298</v>
+      </c>
+      <c r="K15" s="4">
+        <v>298</v>
+      </c>
+      <c r="L15" s="4">
+        <v>298</v>
+      </c>
+      <c r="M15" s="4">
+        <v>298</v>
+      </c>
+      <c r="N15" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-75</v>
+      </c>
+      <c r="J16" s="4">
+        <v>298</v>
+      </c>
+      <c r="K16" s="4">
+        <v>298</v>
+      </c>
+      <c r="L16" s="4">
+        <v>298</v>
+      </c>
+      <c r="M16" s="4">
+        <v>298</v>
+      </c>
+      <c r="N16" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.25</v>
       </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>90</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>298</v>
+      </c>
+      <c r="K17" s="4">
+        <v>298</v>
+      </c>
+      <c r="L17" s="4">
+        <v>298</v>
+      </c>
+      <c r="M17" s="4">
+        <v>298</v>
+      </c>
+      <c r="N17" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>298</v>
+      </c>
+      <c r="K18" s="4">
+        <v>298</v>
+      </c>
+      <c r="L18" s="4">
+        <v>298</v>
+      </c>
+      <c r="M18" s="4">
+        <v>298</v>
+      </c>
+      <c r="N18" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>90</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>298</v>
+      </c>
+      <c r="K19" s="4">
+        <v>298</v>
+      </c>
+      <c r="L19" s="4">
+        <v>298</v>
+      </c>
+      <c r="M19" s="4">
+        <v>298</v>
+      </c>
+      <c r="N19" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-75</v>
+      </c>
+      <c r="J20" s="4">
+        <v>298</v>
+      </c>
+      <c r="K20" s="4">
+        <v>298</v>
+      </c>
+      <c r="L20" s="4">
+        <v>298</v>
+      </c>
+      <c r="M20" s="4">
+        <v>298</v>
+      </c>
+      <c r="N20" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>90</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>298</v>
+      </c>
+      <c r="K21" s="4">
+        <v>298</v>
+      </c>
+      <c r="L21" s="4">
+        <v>298</v>
+      </c>
+      <c r="M21" s="4">
+        <v>298</v>
+      </c>
+      <c r="N21" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="T9" s="4">
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>298</v>
+      </c>
+      <c r="K22" s="4">
+        <v>298</v>
+      </c>
+      <c r="L22" s="4">
+        <v>298</v>
+      </c>
+      <c r="M22" s="4">
+        <v>298</v>
+      </c>
+      <c r="N22" s="4">
+        <v>101325</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:M141">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="J2:M140">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Excel Input/Input.xlsx
+++ b/Excel Input/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Master Project\FPPC\Git\FlareNet-Particle-Penetration-Calculator\Excel Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99081E77-0F01-43E2-B1FE-6FD3821A88CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB2C5F8-D13A-41E6-8633-E4A777C3C93C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,60 +369,6 @@
   <dxfs count="26">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1088,6 +1034,60 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1108,7 +1108,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90A86D65-B662-41BF-9EC5-19C0B5F11C9F}" name="Table1" displayName="Table1" ref="A1:W1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90A86D65-B662-41BF-9EC5-19C0B5F11C9F}" name="Table1" displayName="Table1" ref="A1:W1048576" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A1:W1048576" xr:uid="{A940C795-5F6C-42C7-A39A-ECB0162C3CEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1135,29 +1135,29 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BD8A1548-8B7C-4371-90E7-DA1A83B4B44E}" name="NO" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3C1157F3-8D86-48F0-A8D1-3958B5D1CA6C}" name="Name" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{191EC66F-6CEF-42ED-BC28-1EA794DBCD4C}" name="From" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{761A7C79-3AF6-4607-81D8-265DC1A1AC0D}" name="To" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A7156802-BC22-4C48-80DC-1547962F8A62}" name="Ignore" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{C35FF28F-946F-4FF2-9555-E6246E744FD2}" name="ID(Inch)" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{089A61ED-CE9D-429B-92C5-B16CAF9C2881}" name="Length(Inch)" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{480A2350-EE87-4A20-AF5F-B653074EB871}" name="Bend(Deg)" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{30CD5267-995E-420B-AFF5-901B4D338EF2}" name="θ (from horizon) (Deg)" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{D54794A7-BD93-4700-96C5-F6EA32042196}" name="Tg(K)" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{70450160-9448-4499-8C22-E2F8A3E92A28}" name="Tw(K)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{E09FCC7B-6758-4BDE-BE9E-039FFF3FA475}" name="T1(K)" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{1100831D-792E-4970-9446-9A2D98B044BC}" name="T2(K)" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{79F1AB6D-9DA7-4B56-AD27-2FEEFF1B8575}" name="Pg(Pa)" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{7C6056AF-7B4A-4501-8478-8FD33AE373D9}" name="Q(SLPM)" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{D6C70E4B-1C06-4C6F-8E9B-F7F17DC8DAB2}" name="Material" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{600777BF-2A86-4B44-A4AB-55CFA4150C31}" name="ID (Second) (Inch)" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{13215D8F-FB1A-464E-A12F-47667EBD4EF1}" name="Half_Theta (Second) (Deg)" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{B0E90244-96CD-4E59-AF98-D146990B7E53}" name="Sampling Probe" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{AE3D45B4-89CA-40CB-97E5-6ED6950EA79F}" name="U0(m/s)" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{BC35E384-C576-43E1-ABE8-E343BCE4FE1D}" name="Theta Probe(Deg)" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{EC2783F5-7A45-4CAE-93AB-E84D60F7B457}" name="Ambient Air Temp (K)" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{11EAF34D-3377-44D0-B17B-FB982863455A}" name="Insulation RSI (m^2.K/W)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BD8A1548-8B7C-4371-90E7-DA1A83B4B44E}" name="NO" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{3C1157F3-8D86-48F0-A8D1-3958B5D1CA6C}" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{191EC66F-6CEF-42ED-BC28-1EA794DBCD4C}" name="From" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{761A7C79-3AF6-4607-81D8-265DC1A1AC0D}" name="To" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{A7156802-BC22-4C48-80DC-1547962F8A62}" name="Ignore" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{C35FF28F-946F-4FF2-9555-E6246E744FD2}" name="ID(Inch)" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{089A61ED-CE9D-429B-92C5-B16CAF9C2881}" name="Length(Inch)" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{480A2350-EE87-4A20-AF5F-B653074EB871}" name="Bend(Deg)" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{30CD5267-995E-420B-AFF5-901B4D338EF2}" name="θ (from horizon) (Deg)" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{D54794A7-BD93-4700-96C5-F6EA32042196}" name="Tg(K)" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{70450160-9448-4499-8C22-E2F8A3E92A28}" name="Tw(K)" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{E09FCC7B-6758-4BDE-BE9E-039FFF3FA475}" name="T1(K)" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{1100831D-792E-4970-9446-9A2D98B044BC}" name="T2(K)" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{79F1AB6D-9DA7-4B56-AD27-2FEEFF1B8575}" name="Pg(Pa)" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{7C6056AF-7B4A-4501-8478-8FD33AE373D9}" name="Q(SLPM)" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{D6C70E4B-1C06-4C6F-8E9B-F7F17DC8DAB2}" name="Material" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{600777BF-2A86-4B44-A4AB-55CFA4150C31}" name="ID (Second) (Inch)" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{13215D8F-FB1A-464E-A12F-47667EBD4EF1}" name="Half_Theta (Second) (Deg)" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{B0E90244-96CD-4E59-AF98-D146990B7E53}" name="Sampling Probe" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{AE3D45B4-89CA-40CB-97E5-6ED6950EA79F}" name="U0(m/s)" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{BC35E384-C576-43E1-ABE8-E343BCE4FE1D}" name="Theta Probe(Deg)" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{EC2783F5-7A45-4CAE-93AB-E84D60F7B457}" name="Ambient Air Temp (K)" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{11EAF34D-3377-44D0-B17B-FB982863455A}" name="Insulation RSI (m^2.K/W)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,10 +1429,10 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excel Input/Input.xlsx
+++ b/Excel Input/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Master Project\FPPC\Git\FlareNet-Particle-Penetration-Calculator\Excel Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB2C5F8-D13A-41E6-8633-E4A777C3C93C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143E8A03-DAC1-473C-BF11-22BCB9F1C617}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,10 +1429,10 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
